--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914880.6286390075</v>
+        <v>-917436.9444662577</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>155.8380202720384</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>79.52865635059553</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609191</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -820,16 +820,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>9.558277832398417</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>91.63537003241868</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>117.9651758720285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>42.75007684909301</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7083496784888</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>192.1080157852425</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>14.45754597494922</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>208.7099749169699</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>147.2077150633797</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>149.1816830357531</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>59.50273983305976</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.65115569188597</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>1.839588425941138</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>265.3843782919211</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>137.5999985461714</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>148.8966545308544</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576152</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>108.9065924712588</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>36.2249434387023</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652589</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,10 +3424,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,13 +3673,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796256</v>
+        <v>1624.63871203243</v>
       </c>
       <c r="C2" t="n">
-        <v>921.7704558796256</v>
+        <v>1255.676195092018</v>
       </c>
       <c r="D2" t="n">
-        <v>563.5047572728752</v>
+        <v>897.4104964852677</v>
       </c>
       <c r="E2" t="n">
-        <v>406.0926155839475</v>
+        <v>897.4104964852677</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839475</v>
+        <v>486.4245916956601</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,7 +4325,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="3">
@@ -4389,7 +4389,7 @@
         <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
         <v>1219.471239609104</v>
@@ -4398,52 +4398,52 @@
         <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064753</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080133</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
         <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
         <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
         <v>2285.923269547493</v>
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>530.2513404403938</v>
+        <v>484.5540527820583</v>
       </c>
       <c r="C4" t="n">
-        <v>361.3151575124869</v>
+        <v>315.6178698541514</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>305.9630437608197</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>305.9630437608197</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>159.0730962629094</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757129</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W4" t="n">
-        <v>831.0565485757129</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X4" t="n">
-        <v>831.0565485757129</v>
+        <v>666.202517612298</v>
       </c>
       <c r="Y4" t="n">
-        <v>711.8998052706336</v>
+        <v>666.202517612298</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1844.338003964586</v>
+        <v>1935.366530930991</v>
       </c>
       <c r="C5" t="n">
-        <v>1475.375487024174</v>
+        <v>1566.404013990579</v>
       </c>
       <c r="D5" t="n">
-        <v>1117.109788417424</v>
+        <v>1208.138315383829</v>
       </c>
       <c r="E5" t="n">
-        <v>731.3215358191796</v>
+        <v>822.3500627855844</v>
       </c>
       <c r="F5" t="n">
-        <v>320.3356310295721</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265599</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2994.542934265599</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2621.07717600452</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y5" t="n">
-        <v>2230.937844028708</v>
+        <v>1935.366530930991</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,13 +4659,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>216.6287558445191</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445191</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5121164321834</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>726.8385050250099</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>726.8385050250099</v>
+        <v>906.2834240253069</v>
       </c>
       <c r="W7" t="n">
-        <v>437.4213349880492</v>
+        <v>616.8662539883463</v>
       </c>
       <c r="X7" t="n">
-        <v>437.4213349880492</v>
+        <v>616.8662539883463</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.6287558445191</v>
+        <v>396.0736748448162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.584018541385</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1145.385526619114</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1145.385526619114</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678286</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3066.620491456084</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3066.620491456084</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2735.557604112513</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2382.788948842398</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2009.323190581319</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>1619.183858605507</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>831.0565485757124</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>662.1203656478056</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>512.0037262354698</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>364.0906326530767</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>217.2006851551663</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757124</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757124</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757124</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V10" t="n">
-        <v>831.0565485757124</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W10" t="n">
-        <v>831.0565485757124</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X10" t="n">
-        <v>831.0565485757124</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y10" t="n">
-        <v>831.0565485757124</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,19 +5051,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
@@ -5124,19 +5124,19 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718132</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5294,31 +5294,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>558.0193492433381</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>558.0193492433381</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782971</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038358</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2424.083128335929</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S16" t="n">
-        <v>2241.228293990834</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="T16" t="n">
-        <v>2021.626829013775</v>
+        <v>2227.361618603203</v>
       </c>
       <c r="U16" t="n">
-        <v>1732.551602357973</v>
+        <v>1938.286391947401</v>
       </c>
       <c r="V16" t="n">
-        <v>1477.867114152086</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W16" t="n">
-        <v>1188.449944115125</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>960.4603932171079</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>739.6678140735778</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5504,37 +5504,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,55 +5647,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
@@ -5704,19 +5704,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1776.441755680408</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1521.757267474521</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015258</v>
+        <v>1232.340097437561</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.415575117241</v>
+        <v>1004.350546539543</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>783.5579673960132</v>
       </c>
     </row>
     <row r="20">
@@ -5747,31 +5747,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>719.5738700011939</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1894.106123115829</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1639.421634909942</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1350.004464872981</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1122.014913974964</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>901.2223348314336</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5981,10 +5981,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5993,7 +5993,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6552,10 +6552,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6789,10 +6789,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656823</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,19 +7072,19 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311328</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,7 +7567,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7591,16 +7591,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7637,13 +7637,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7810,7 +7810,7 @@
         <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979287</v>
@@ -7828,25 +7828,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>226.0923498002234</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>331.393069302858</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22708,22 +22708,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>74.39043822660955</v>
       </c>
       <c r="H4" t="n">
-        <v>94.50540546239057</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>100.6194774800663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>65.54986409393054</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891702</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>43.72409101823571</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>250.2980548978869</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>20.80009609732309</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>80.98465480592338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>137.2878198583898</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>72.11969353038577</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-3.836930773104541e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>998587.6312764991</v>
+        <v>998587.6312764988</v>
       </c>
     </row>
     <row r="3">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186177.354983754</v>
+        <v>186177.3549837539</v>
       </c>
       <c r="C2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="D2" t="n">
         <v>225786.4867126779</v>
       </c>
       <c r="E2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147516</v>
       </c>
       <c r="F2" t="n">
         <v>221965.3149147517</v>
@@ -26347,13 +26347,13 @@
         <v>225786.486712678</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11387.33216691507</v>
+        <v>11387.33216691496</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
@@ -26436,28 +26436,28 @@
         <v>16046.58397189199</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
+        <v>24037.44323498543</v>
+      </c>
+      <c r="M4" t="n">
+        <v>24037.44323498545</v>
+      </c>
+      <c r="N4" t="n">
+        <v>24037.44323498543</v>
+      </c>
+      <c r="O4" t="n">
         <v>24037.44323498544</v>
       </c>
-      <c r="M4" t="n">
-        <v>24037.44323498544</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>24037.44323498545</v>
-      </c>
-      <c r="O4" t="n">
-        <v>24037.44323498543</v>
-      </c>
-      <c r="P4" t="n">
-        <v>24037.44323498544</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1261888.663472147</v>
+        <v>-1262248.746487865</v>
       </c>
       <c r="C6" t="n">
-        <v>24255.80204723252</v>
+        <v>24255.80204723209</v>
       </c>
       <c r="D6" t="n">
-        <v>24255.80204723185</v>
+        <v>24255.80204723203</v>
       </c>
       <c r="E6" t="n">
-        <v>-220616.2606884029</v>
+        <v>-220650.9986138386</v>
       </c>
       <c r="F6" t="n">
-        <v>104796.2011189527</v>
+        <v>104761.4631935169</v>
       </c>
       <c r="G6" t="n">
-        <v>104796.2011189526</v>
+        <v>104761.4631935169</v>
       </c>
       <c r="H6" t="n">
-        <v>104796.2011189526</v>
+        <v>104761.4631935169</v>
       </c>
       <c r="I6" t="n">
-        <v>104796.2011189527</v>
+        <v>104761.4631935171</v>
       </c>
       <c r="J6" t="n">
-        <v>-112735.0012783249</v>
+        <v>-112769.7392037605</v>
       </c>
       <c r="K6" t="n">
-        <v>104796.2011189526</v>
+        <v>104761.4631935169</v>
       </c>
       <c r="L6" t="n">
-        <v>79157.20963014543</v>
+        <v>79157.20963014546</v>
       </c>
       <c r="M6" t="n">
-        <v>13529.89968826534</v>
+        <v>13529.89968826526</v>
       </c>
       <c r="N6" t="n">
-        <v>98584.92762377713</v>
+        <v>98584.9276237773</v>
       </c>
       <c r="O6" t="n">
         <v>98584.92762377727</v>
       </c>
       <c r="P6" t="n">
-        <v>98584.92762377716</v>
+        <v>98584.92762377724</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>139.057195185814</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>50.24960945193021</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>364.1259688926184</v>
       </c>
       <c r="G5" t="n">
-        <v>201.2133759749647</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,10 +27828,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>94.10382242037034</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>237.6800973488788</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>173.2203951552919</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>56.71025507624046</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>16.84412522327514</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>226.7090983725531</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-2.211213280550236e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28336,13 +28336,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,13 +31844,13 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>513.0745614164387</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>414.644818552487</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
@@ -31859,7 +31859,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,13 +32798,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33272,13 +33272,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33439,10 +33439,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33509,13 +33509,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597745</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,13 +35492,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>374.5201816365645</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
@@ -35507,7 +35507,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,19 +35729,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295474</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998967</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>351.9532034556938</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,13 +36446,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36920,13 +36920,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37087,10 +37087,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,13 +37157,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
